--- a/documents/DB定義書_NANIKA.xlsx
+++ b/documents/DB定義書_NANIKA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - 株式会社SEプラス\デスクトップ\研修\WEBコース\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7432DD24-3B6F-47F4-B901-1E2496C386A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BD8C6-DA3A-4E53-B9E1-68A7209B0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16155" windowHeight="8925" tabRatio="593" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="900" windowWidth="12855" windowHeight="8925" tabRatio="593" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="table_unit" sheetId="6" r:id="rId4"/>
     <sheet name="table_question" sheetId="4" r:id="rId5"/>
     <sheet name="table_score" sheetId="8" r:id="rId6"/>
+    <sheet name="table_user_score" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="94">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -405,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコアマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スコア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -492,13 +489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,6 +508,51 @@
   </si>
   <si>
     <t>技能判定システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判別</t>
+    <rPh sb="0" eb="2">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題ID</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが選択した問題の選択肢</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>センタクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>user_answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table_user_score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -990,7 +1025,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1075,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1084,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1099,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1114,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1132,10 +1167,10 @@
         <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1417,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1427,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1518,13 +1553,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1544,7 +1579,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1552,7 +1587,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1572,7 +1607,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1580,7 +1615,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1600,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1608,7 +1643,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1628,7 +1663,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -1636,7 +1671,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1963,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1973,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2064,13 +2099,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2090,7 +2125,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2098,7 +2133,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2479,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2489,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2580,13 +2615,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2606,7 +2641,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -2614,7 +2649,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2642,7 +2677,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -2971,7 +3006,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2989,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3003,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3013,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3030,7 +3065,7 @@
       </c>
       <c r="C4" s="3" t="str">
         <f>A1</f>
-        <v>問題マスタ</v>
+        <v>問題</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3104,13 +3139,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3124,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
@@ -3136,15 +3171,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>subject_id int ,</v>
+        <v>unit_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3158,7 +3193,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -3166,7 +3201,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3186,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -3194,7 +3229,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3214,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -3222,7 +3257,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3242,7 +3277,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -3250,7 +3285,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3270,7 +3305,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -3278,7 +3313,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3298,7 +3333,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -3306,7 +3341,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3326,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3">
         <v>200</v>
@@ -3334,7 +3369,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3354,7 +3389,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
         <v>200</v>
@@ -3362,7 +3397,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -3382,7 +3417,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -3390,7 +3425,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -3410,7 +3445,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
@@ -3418,7 +3453,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -3438,19 +3473,21 @@
         <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">answer int </v>
+        <v>answer varchar (200)</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -3594,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACDBBBE-BDD7-44C1-B134-503A63FE6070}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3627,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3637,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -3654,7 +3691,7 @@
       </c>
       <c r="C4" s="3" t="str">
         <f>A1</f>
-        <v>スコアマスタ</v>
+        <v>スコア</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3668,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3730,43 +3767,33 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L18" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id int ,</v>
+        <v xml:space="preserve">user_id int </v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>subject_id int ,</v>
+        <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3786,11 +3813,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -3802,13 +3829,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3818,7 +3845,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -3830,13 +3857,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -3856,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -3882,10 +3909,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>58</v>
@@ -3894,13 +3921,13 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4150,4 +4177,525 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E727A9-53E8-47E9-B349-8618D6ADE76F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44357</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>A1</f>
+        <v>判別</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table table_user_score (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>question_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>start_time varchar (200),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>user_answer varchar (200)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/DB定義書_NANIKA.xlsx
+++ b/documents/DB定義書_NANIKA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BD8C6-DA3A-4E53-B9E1-68A7209B0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB99A2-E595-4A41-9D1D-13791F420D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="900" windowWidth="12855" windowHeight="8925" tabRatio="593" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="840" windowWidth="17535" windowHeight="9375" tabRatio="593" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="table_unit" sheetId="6" r:id="rId4"/>
     <sheet name="table_question" sheetId="4" r:id="rId5"/>
     <sheet name="table_score" sheetId="8" r:id="rId6"/>
-    <sheet name="table_user_score" sheetId="10" r:id="rId7"/>
+    <sheet name="table_score (変更)" sheetId="11" r:id="rId7"/>
+    <sheet name="table_user_score" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -553,6 +554,13 @@
   </si>
   <si>
     <t>table_user_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★（変更）varchar  →  int　★</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +693,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3631,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACDBBBE-BDD7-44C1-B134-503A63FE6070}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4180,10 +4200,565 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4339998F-8CEE-4CAF-B0C8-4A88DD961DA1}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44357</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>A1</f>
+        <v>スコア</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table table_score (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">user_id int </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>unit_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>start_time varchar (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>end_time varchar (20),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>score int (5),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">result int </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E727A9-53E8-47E9-B349-8618D6ADE76F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
